--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H2">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I2">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J2">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N2">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O2">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P2">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q2">
-        <v>29.529658450985</v>
+        <v>13.63329546274845</v>
       </c>
       <c r="R2">
-        <v>265.766926058865</v>
+        <v>122.699659164736</v>
       </c>
       <c r="S2">
-        <v>0.001538477972413894</v>
+        <v>0.0005818988442546605</v>
       </c>
       <c r="T2">
-        <v>0.001867542004622817</v>
+        <v>0.0006162176677655172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H3">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I3">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J3">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P3">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q3">
-        <v>31.68431018291</v>
+        <v>33.32091442903756</v>
       </c>
       <c r="R3">
-        <v>285.15879164619</v>
+        <v>299.8882298613381</v>
       </c>
       <c r="S3">
-        <v>0.001650734070238131</v>
+        <v>0.001422209446626086</v>
       </c>
       <c r="T3">
-        <v>0.002003808484690046</v>
+        <v>0.001506087521786643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H4">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I4">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J4">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N4">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O4">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P4">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q4">
-        <v>157.33358948923</v>
+        <v>187.2391492389403</v>
       </c>
       <c r="R4">
-        <v>1416.00230540307</v>
+        <v>1685.152343150462</v>
       </c>
       <c r="S4">
-        <v>0.008196988195842698</v>
+        <v>0.007991776077843489</v>
       </c>
       <c r="T4">
-        <v>0.009950236559523058</v>
+        <v>0.008463109464155849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H5">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I5">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J5">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N5">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O5">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P5">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q5">
-        <v>382.2313525338</v>
+        <v>84.76766563836368</v>
       </c>
       <c r="R5">
-        <v>2293.3881152028</v>
+        <v>508.6059938301821</v>
       </c>
       <c r="S5">
-        <v>0.01991403040489978</v>
+        <v>0.003618069218840597</v>
       </c>
       <c r="T5">
-        <v>0.01611561943225146</v>
+        <v>0.00255430211838496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H6">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I6">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J6">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N6">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O6">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P6">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q6">
-        <v>147.69810744997</v>
+        <v>247.7863846043886</v>
       </c>
       <c r="R6">
-        <v>1329.28296704973</v>
+        <v>2230.077461439497</v>
       </c>
       <c r="S6">
-        <v>0.007694985204660226</v>
+        <v>0.01057606440183955</v>
       </c>
       <c r="T6">
-        <v>0.009340860481808671</v>
+        <v>0.0111998121394916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J7">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N7">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O7">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P7">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q7">
-        <v>97.31335047198965</v>
+        <v>42.72107708046934</v>
       </c>
       <c r="R7">
-        <v>875.8201542479069</v>
+        <v>384.489693724224</v>
       </c>
       <c r="S7">
-        <v>0.00506996876958309</v>
+        <v>0.001823428931498252</v>
       </c>
       <c r="T7">
-        <v>0.006154381024036541</v>
+        <v>0.001930969849138041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J8">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P8">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q8">
         <v>104.4138856672047</v>
@@ -948,10 +948,10 @@
         <v>939.724971004842</v>
       </c>
       <c r="S8">
-        <v>0.005439902509532036</v>
+        <v>0.004456612824089407</v>
       </c>
       <c r="T8">
-        <v>0.006603439646044556</v>
+        <v>0.004719451821754112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J9">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N9">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O9">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P9">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q9">
-        <v>518.4841118428474</v>
+        <v>586.7296097979287</v>
       </c>
       <c r="R9">
-        <v>4666.357006585626</v>
+        <v>5280.566488181358</v>
       </c>
       <c r="S9">
-        <v>0.02701271965068038</v>
+        <v>0.02504290197218197</v>
       </c>
       <c r="T9">
-        <v>0.03279045232450948</v>
+        <v>0.02651986474924993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J10">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N10">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O10">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P10">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q10">
-        <v>1259.62220769484</v>
+        <v>265.626604188473</v>
       </c>
       <c r="R10">
-        <v>7557.733246169039</v>
+        <v>1593.759625130838</v>
       </c>
       <c r="S10">
-        <v>0.06562558193209408</v>
+        <v>0.01133752396131243</v>
       </c>
       <c r="T10">
-        <v>0.05310812939089656</v>
+        <v>0.0080041203525953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J11">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N11">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O11">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P11">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q11">
-        <v>486.7309155703794</v>
+        <v>776.4594602309636</v>
       </c>
       <c r="R11">
-        <v>4380.578240133414</v>
+        <v>6988.135142078672</v>
       </c>
       <c r="S11">
-        <v>0.02535839665537674</v>
+        <v>0.03314098662011312</v>
       </c>
       <c r="T11">
-        <v>0.03078228728195415</v>
+        <v>0.03509555257607089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H12">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I12">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J12">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N12">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O12">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P12">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q12">
-        <v>328.5090866980731</v>
+        <v>201.9132413196587</v>
       </c>
       <c r="R12">
-        <v>2956.581780282658</v>
+        <v>1817.219171876928</v>
       </c>
       <c r="S12">
-        <v>0.01711513170603345</v>
+        <v>0.008618098396287185</v>
       </c>
       <c r="T12">
-        <v>0.02077587586484483</v>
+        <v>0.00912637058273604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H13">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I13">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J13">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P13">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q13">
-        <v>352.4789769621948</v>
+        <v>493.4928502419194</v>
       </c>
       <c r="R13">
-        <v>3172.310792659754</v>
+        <v>4441.435652177274</v>
       </c>
       <c r="S13">
-        <v>0.01836394900047457</v>
+        <v>0.02106335331676437</v>
       </c>
       <c r="T13">
-        <v>0.02229180186137303</v>
+        <v>0.02230561305342146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H14">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I14">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J14">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N14">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O14">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P14">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q14">
-        <v>1750.291622093329</v>
+        <v>2773.068597249347</v>
       </c>
       <c r="R14">
-        <v>15752.62459883996</v>
+        <v>24957.61737524413</v>
       </c>
       <c r="S14">
-        <v>0.09118917207799096</v>
+        <v>0.1183606279338261</v>
       </c>
       <c r="T14">
-        <v>0.1106935635582898</v>
+        <v>0.1253412183591225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H15">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I15">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J15">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N15">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O15">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P15">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q15">
-        <v>4252.215539054412</v>
+        <v>1255.434841481281</v>
       </c>
       <c r="R15">
-        <v>25513.29323432648</v>
+        <v>7532.609048887686</v>
       </c>
       <c r="S15">
-        <v>0.2215379480819248</v>
+        <v>0.05358470263415795</v>
       </c>
       <c r="T15">
-        <v>0.1792817018202273</v>
+        <v>0.03782998919388227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H16">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I16">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J16">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N16">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O16">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P16">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q16">
-        <v>1643.09961342628</v>
+        <v>3669.791519376743</v>
       </c>
       <c r="R16">
-        <v>14787.89652083652</v>
+        <v>33028.12367439068</v>
       </c>
       <c r="S16">
-        <v>0.08560453098142068</v>
+        <v>0.1566347219288079</v>
       </c>
       <c r="T16">
-        <v>0.1039144272849094</v>
+        <v>0.1658726151307307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H17">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I17">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J17">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N17">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O17">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P17">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q17">
-        <v>16.3597302531835</v>
+        <v>10.38596039704533</v>
       </c>
       <c r="R17">
-        <v>98.15838151910098</v>
+        <v>62.31576238227201</v>
       </c>
       <c r="S17">
-        <v>0.000852332398999232</v>
+        <v>0.0004432954869957011</v>
       </c>
       <c r="T17">
-        <v>0.0006897581400031339</v>
+        <v>0.0003129599056887195</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H18">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I18">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J18">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.123578</v>
       </c>
       <c r="O18">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P18">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q18">
-        <v>17.553429163801</v>
+        <v>25.38415591438767</v>
       </c>
       <c r="R18">
-        <v>105.320574982806</v>
+        <v>152.304935486326</v>
       </c>
       <c r="S18">
-        <v>0.000914523415625035</v>
+        <v>0.001083451248403039</v>
       </c>
       <c r="T18">
-        <v>0.0007400868145942736</v>
+        <v>0.0007649001861411431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H19">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I19">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J19">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N19">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O19">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P19">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q19">
-        <v>87.16440415595299</v>
+        <v>142.6403758420457</v>
       </c>
       <c r="R19">
-        <v>522.9864249357179</v>
+        <v>855.8422550522741</v>
       </c>
       <c r="S19">
-        <v>0.004541214589227418</v>
+        <v>0.006088202964083907</v>
       </c>
       <c r="T19">
-        <v>0.003675021308703556</v>
+        <v>0.004298179163443546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H20">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I20">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J20">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N20">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O20">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P20">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q20">
-        <v>211.76004565518</v>
+        <v>64.5767283981785</v>
       </c>
       <c r="R20">
-        <v>847.0401826207199</v>
+        <v>258.306913592714</v>
       </c>
       <c r="S20">
-        <v>0.01103257479996312</v>
+        <v>0.002756275892598583</v>
       </c>
       <c r="T20">
-        <v>0.005952144400004099</v>
+        <v>0.001297259380713567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H21">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I21">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J21">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N21">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O21">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P21">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q21">
-        <v>81.82624938916699</v>
+        <v>188.7657745304532</v>
       </c>
       <c r="R21">
-        <v>490.957496335002</v>
+        <v>1132.594647182719</v>
       </c>
       <c r="S21">
-        <v>0.00426309984111178</v>
+        <v>0.008056935781538654</v>
       </c>
       <c r="T21">
-        <v>0.003449954290726859</v>
+        <v>0.005688074740889159</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H22">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I22">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J22">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N22">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O22">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P22">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q22">
-        <v>285.5517975930069</v>
+        <v>294.9382125969565</v>
       </c>
       <c r="R22">
-        <v>2569.966178337062</v>
+        <v>2654.443913372608</v>
       </c>
       <c r="S22">
-        <v>0.0148770820126224</v>
+        <v>0.01258860746513193</v>
       </c>
       <c r="T22">
-        <v>0.01805913120822787</v>
+        <v>0.01333104956156999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H23">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I23">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J23">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.123578</v>
       </c>
       <c r="O23">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P23">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q23">
-        <v>306.3872798678636</v>
+        <v>720.8536608518016</v>
       </c>
       <c r="R23">
-        <v>2757.485518810772</v>
+        <v>6487.682947666214</v>
       </c>
       <c r="S23">
-        <v>0.01596259847999685</v>
+        <v>0.03076760958291747</v>
       </c>
       <c r="T23">
-        <v>0.01937682807219451</v>
+        <v>0.03258220016606182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H24">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I24">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J24">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N24">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O24">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P24">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q24">
-        <v>1521.415812342769</v>
+        <v>4050.669931976577</v>
       </c>
       <c r="R24">
-        <v>13692.74231108491</v>
+        <v>36456.02938778919</v>
       </c>
       <c r="S24">
-        <v>0.07926487595705546</v>
+        <v>0.1728914449418887</v>
       </c>
       <c r="T24">
-        <v>0.09621878765593003</v>
+        <v>0.1830881157964213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H25">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I25">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J25">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N25">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O25">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P25">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q25">
-        <v>3696.177183816773</v>
+        <v>1833.835689816058</v>
       </c>
       <c r="R25">
-        <v>22177.06310290064</v>
+        <v>11003.01413889635</v>
       </c>
       <c r="S25">
-        <v>0.1925686742662358</v>
+        <v>0.07827211486560018</v>
       </c>
       <c r="T25">
-        <v>0.1558380401128783</v>
+        <v>0.05525892864917075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H26">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I26">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J26">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N26">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O26">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P26">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q26">
-        <v>1428.240700901747</v>
+        <v>5360.528830374755</v>
       </c>
       <c r="R26">
-        <v>12854.16630811572</v>
+        <v>48244.75947337279</v>
       </c>
       <c r="S26">
-        <v>0.07441050702599729</v>
+        <v>0.2287990852623988</v>
       </c>
       <c r="T26">
-        <v>0.09032612097675566</v>
+        <v>0.2422930378696141</v>
       </c>
     </row>
   </sheetData>
